--- a/Data/Excels/fish.xlsx
+++ b/Data/Excels/fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameOff\GameOffJam2022\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1408D9EE-4AF1-4B07-B52B-99E1CA2BF429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996D05D5-DD11-4ABE-9F87-959C68D1D36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,13 +574,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
@@ -670,7 +670,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4">
-        <v>1001</v>
+        <v>21001</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
@@ -685,7 +685,7 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5">
-        <v>1002</v>
+        <v>21002</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6">
-        <v>2001</v>
+        <v>22001</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
@@ -731,7 +731,7 @@
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7">
-        <v>2002</v>
+        <v>22002</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>28</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8">
-        <v>3001</v>
+        <v>23001</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
@@ -777,7 +777,7 @@
         <v>3000</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9">
-        <v>3002</v>
+        <v>23002</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
